--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_F25DC773A252ABEACE02ECA71B99451A5ADE58A2" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{B6E5AF5B-59D4-48C1-AC9F-F6593CE8C7D9}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="11_F25DC773A252ABEACE02ECA71B99451A5ADE58A2" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{CB1A12A8-12D5-4ECA-BB26-8369978DA28F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -40,9 +40,31 @@
     <t>Villages and numbers</t>
   </si>
   <si>
-    <t>terms for Esan language and people
+    <t>SA002</t>
+  </si>
+  <si>
+    <t>Body parts and verbs</t>
+  </si>
+  <si>
+    <t>Sunny's name
+terms for Esan language and people
 names of Esan villages
 numbers 1-10</t>
+  </si>
+  <si>
+    <t>greetings
+body parts
+colors
+basic verbs</t>
+  </si>
+  <si>
+    <t>Notebook</t>
+  </si>
+  <si>
+    <t>IV.95-104</t>
+  </si>
+  <si>
+    <t>IV.105-115</t>
   </si>
 </sst>
 </file>
@@ -86,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -104,6 +126,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,23 +409,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.59765625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.06640625" style="3"/>
+    <col min="5" max="5" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.06640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -412,8 +438,11 @@
       <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>43168</v>
       </c>
@@ -424,7 +453,27 @@
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>43177</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
